--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,8 +28,459 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>C'est un peu gratuit
+	-Adrien Tardieu
+Mais tellement vrai :p ?
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Pareil, on doit pouvoir trouver mieux sur Charles !
+	-Marin Boyet
+genre ? :)
+	-Adrien Tardieu
+finalement oK
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Un peu tiré par les cheveux quand même, sans l'anecdote je suggère juste de trouver une blague sur son caractère étourdi
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>okay pour mettre la même description aux deux
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>C'est raciste, il est de Casablanca il me semble ;)
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>rajouter un compositeur anglais du coup :)
+	-Marin Boyet
+Shakespeare n'était pas compositeur ...
+	-Marin Boyet
+J'ai cherché, il n'y a pas de compositeurs d'opéras anglais connus, c'était pas leur spécialités les opéras :(
+	-Adrien Tardieu
+Henry Purcell
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Yep okay beaucoup mieux :)
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>léger aussi
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>?? (de Castries ?) impossible aussi
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>ça me paraît impossible
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>hahaha
+	-Marin Boyet
+mais compliqué à trouver ? il faudrait étoffer ?
+	-Marin Boyet
+A moins que ce ne soit ta coordinatrice de contro ? :p
+	-Remi Gerard
+Je pense que c'est pas mal les quelques private joke
+	-Yohann Roiron
+Je verrais quand même plus un truc Pain de Mine related
+	-Marin Boyet
+Faudrait reformuler et ajoute lexaminatrice de contro mais ça a l'avantage de contribuer à la légende urbaine
+	-Yohann Roiron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>j'ai pas compris e_e ?
+	-Marin Boyet
+Le lien avec le stage ou avec le pôle interne ? La Birmanie c'est une des plus dure dictatures du monde,  ça aurait permis de dynamiser le pôle interne
+	-Yohann Roiron</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Très bon
+	-Marin Boyet
+C'est super simple, c'est un 1 même
+	-Remi Gerard</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Pas trop osé ?
+	-Yohann Roiron
+Pas mal, on peut peut-être trouver encore mieux
+	-Adrien Tardieu
+Je trouve celui là rigolo en tous cas :p
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>C'est un peu gratuit
+	-Adrien Tardieu
+Mais tellement vrai :p ?
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Pareil, on doit pouvoir trouver mieux sur Charles !
+	-Marin Boyet
+genre ? :)
+	-Adrien Tardieu
+finalement oK
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Un peu tiré par les cheveux quand même, sans l'anecdote je suggère juste de trouver une blague sur son caractère étourdi
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>okay pour mettre la même description aux deux
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>C'est raciste, il est de Casablanca il me semble ;)
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Je vote pour celui là
+	-Yohann Roiron
+Bof, on peut faire mieux pour Raphaëlle non ?
+	-Marin Boyet
+genre ?
+	-Adrien Tardieu
+avec la photo ca passe bien
+	-Yohann Roiron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>rajouter un compositeur anglais du coup :)
+	-Marin Boyet
+Shakespeare n'était pas compositeur ...
+	-Marin Boyet
+J'ai cherché, il n'y a pas de compositeurs d'opéras anglais connus, c'était pas leur spécialités les opéras :(
+	-Adrien Tardieu
+Henry Purcell
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Yep okay beaucoup mieux :)
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>léger aussi
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>?? (de Castries ?) impossible aussi
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>ça me paraît impossible
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C68" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>hahaha
+	-Marin Boyet
+mais compliqué à trouver ? il faudrait étoffer ?
+	-Marin Boyet
+A moins que ce ne soit ta coordinatrice de contro ? :p
+	-Remi Gerard
+Je pense que c'est pas mal les quelques private joke
+	-Yohann Roiron
+Je verrais quand même plus un truc Pain de Mine related
+	-Marin Boyet
+Faudrait reformuler et ajoute lexaminatrice de contro mais ça a l'avantage de contribuer à la légende urbaine
+	-Yohann Roiron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>j'ai pas compris e_e ?
+	-Marin Boyet
+Le lien avec le stage ou avec le pôle interne ? La Birmanie c'est une des plus dure dictatures du monde,  ça aurait permis de dynamiser le pôle interne
+	-Yohann Roiron</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="231">
   <si>
     <t xml:space="preserve">COURTOIS Maxence  </t>
   </si>
@@ -106,13 +561,628 @@
   </si>
   <si>
     <t>Partir en césure safari, c'est comme gérer la trésorerie du BDE, parfois on a de la chance et des bonnes surprises !</t>
+  </si>
+  <si>
+    <t>CSIRO, Australie</t>
+  </si>
+  <si>
+    <t>A Paris j'ai organisé un week-end surf, mais à Sidney je me fais une césure surf</t>
+  </si>
+  <si>
+    <t>Banque Pictet, Suisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je suis hyper motivé(e), sauf quand je me claque
+</t>
+  </si>
+  <si>
+    <t>New York, Usa/ Banque Mondiale</t>
+  </si>
+  <si>
+    <t>Foot ou rugby, je pouvais pas choisir, donc j'ai fait les deux. En césure, je fais Washington et NY :)</t>
+  </si>
+  <si>
+    <t>Dailmer, Allemagne</t>
+  </si>
+  <si>
+    <t>A l'asti, on avait des radeaux. En césure, je roule Mercedes</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Règle de base de tout entrepreneur Genius : "faites un produit que les gens utiliseront au moins 2 fois par jour. Pensez à votre brosse à dents..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong </t>
+  </si>
+  <si>
+    <t>J'ai effectué ma cotisation au Rézal par chèque à l'ordre de "Rémi Rézal". Ca ne m'empèche pas de surfer à Hong-Kong</t>
+  </si>
+  <si>
+    <t>J'ai vu tellement de Cro que je suis allé fabriquer des brosses à dents en césure</t>
+  </si>
+  <si>
+    <t>Singapour</t>
+  </si>
+  <si>
+    <t>J'organisais des Mineshakes à quelques étages de ma chambre. De Singapour, je dois aller en Malaisie pour un mojito bon marché.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thales, Hong Kong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour assouvir ma passion du jam, mon premier salaire de césure a été investi dans une guitare </t>
+  </si>
+  <si>
+    <t>Afrique du Sud, Allemagne</t>
+  </si>
+  <si>
+    <t>Qu'ils sont magnifiques ces lions en Afrique du Sud ! Quand ils attaquent, ils ne font pas de discriminations sexistes !</t>
+  </si>
+  <si>
+    <t>Apple, Vimeo USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mes heures sups, c'est tes frais d'inscription </t>
+  </si>
+  <si>
+    <t>Neuss, Allemagne, Afrique du Sud</t>
+  </si>
+  <si>
+    <t>Vous voyez l'Allemagne. Je retourne la carte du monde... et voilà l'Afrique du Sud ! Magique, non ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banque mondial, USA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Washington c'est encore mieux que Beyrouth pour un date de 6 mois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maroc </t>
+  </si>
+  <si>
+    <t>Je n'ai terminé la trésorerie Cartel que fin Août, ça méritait bien un petit stage sous le soleil du Maroc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areva, Allemagne </t>
+  </si>
+  <si>
+    <t>Ma recherche de stage est très fortement influencée par la localité des week-ends fanfare et le niveau de l'orchestre de l'entreprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Washington c'est encore mieux que Casablanca pour un date de 6 mois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allemagne </t>
+  </si>
+  <si>
+    <t>J'ai inventé la danse des pouces un soir d'interne. Depuis je la teste dans les boîtes branchées de Berlin à New-York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA </t>
+  </si>
+  <si>
+    <t>Sur les recommandations d'un membre de ma liste BDE, j'ai décidé de partir aux US faire de la recherche sur le cancer</t>
+  </si>
+  <si>
+    <t>Louis Vuittons, Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi les Chinois ne pourraient-ils pas faire des sacs Vuitton ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areva, Kazakhstan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon nom a donné naissance à un slogan contenant "fragile". Pour prouver le contraire, je suis parti au Kazakhstan
+</t>
+  </si>
+  <si>
+    <t>ALLARD Theophile</t>
+  </si>
+  <si>
+    <t>BEAUFILS Elise</t>
+  </si>
+  <si>
+    <t>BELTAIFA Haroun</t>
+  </si>
+  <si>
+    <t>BRISSOT Charles</t>
+  </si>
+  <si>
+    <t>PEREIRA Michael</t>
+  </si>
+  <si>
+    <t>CHETCUTI Marc</t>
+  </si>
+  <si>
+    <t>COLIN Baptiste</t>
+  </si>
+  <si>
+    <t>CORRAL-COLLIERE Claire</t>
+  </si>
+  <si>
+    <t>DE MALET Benoit</t>
+  </si>
+  <si>
+    <t>DEMAY Solene</t>
+  </si>
+  <si>
+    <t>GRIFFE Mathias</t>
+  </si>
+  <si>
+    <t>JENNEPIN Paul</t>
+  </si>
+  <si>
+    <t>KHATER Nour</t>
+  </si>
+  <si>
+    <t>LAIGLE Victor</t>
+  </si>
+  <si>
+    <t>LANDAIS Antoine</t>
+  </si>
+  <si>
+    <t>MASNAOUI Amine</t>
+  </si>
+  <si>
+    <t>MUSSET Adrien</t>
+  </si>
+  <si>
+    <t>NAJM Matthieu</t>
+  </si>
+  <si>
+    <t>QIU Ximeng</t>
+  </si>
+  <si>
+    <t>SENTISSI Omar</t>
+  </si>
+  <si>
+    <t>Michelin, Thailand</t>
+  </si>
+  <si>
+    <t>Avant j'étais dans les pelles, maintenant je suis dans les pneus</t>
+  </si>
+  <si>
+    <t>Colombie</t>
+  </si>
+  <si>
+    <t>Mes convictions m'ont poussé à aller étudier de plus près la révolution bolivarienne</t>
+  </si>
+  <si>
+    <t>Commerz Bank, Angleterre</t>
+  </si>
+  <si>
+    <t>L'entrepreneuriat ne rapportait pas assez, alors je suis parti dans la finance... une idée de Genius !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	COMMERZ BANK,	Allemagne</t>
+  </si>
+  <si>
+    <t>Après avoir vendu des places pour les opéras parisiens, je pars étendre mon commerce aux pays de Wagner et Purcell</t>
+  </si>
+  <si>
+    <t>Australie</t>
+  </si>
+  <si>
+    <t>J'avais fini de visiter l'Asie du Sud-Est depuis Singapour au S3, donc je suis parti à l'assault de l'Océanie depuis Sydney en césure.</t>
+  </si>
+  <si>
+    <t>Banque mondial, USA</t>
+  </si>
+  <si>
+    <t>Après avoir construit une école au Burkina-Faso en AE, je vole en hélicoptère de l'ONU pour superviser la construction de routes en Centrafrique</t>
+  </si>
+  <si>
+    <t>Paris, Critéo, USA</t>
+  </si>
+  <si>
+    <t>Je fais une escale au ministère de l'Economie entre mon S3 à Hong-Kong et ma fin de césure en Californie</t>
+  </si>
+  <si>
+    <t>IPSOS, Chicago</t>
+  </si>
+  <si>
+    <t>Spécialiste de la nuit parisienne, je pars sonder les milieux underground de Chicago</t>
+  </si>
+  <si>
+    <t>Coca-Cola, Belgique, Suisse</t>
+  </si>
+  <si>
+    <t>A 10km de la frontière alsacienne en S3, en Belgique pour mon premier stage, je pars terminer ma césure en Suisse.</t>
+  </si>
+  <si>
+    <t>Reuniwatt, Réunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai tellement aimé les réunions du cartel que j'y suis retourné. </t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après le saké chez les chinois du Japon, la bière en Alsace orientale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteo,  Espagne. </t>
+  </si>
+  <si>
+    <t>Je croyais au mythe avant qu'on me confirme que Critéo a bien des bureaux à Barcelone !</t>
+  </si>
+  <si>
+    <t>Renault Trucks, Madrid</t>
+  </si>
+  <si>
+    <t>Les Maldives avaient un besoin urgent d'une experte en compost !</t>
+  </si>
+  <si>
+    <t>Schlumberger, USA/Eramet, Nouvelle Calédonie</t>
+  </si>
+  <si>
+    <t>Après le pétrole, les cailloux qui brillent, ou comment se perdre en venant de mareva.</t>
+  </si>
+  <si>
+    <t>Turquie</t>
+  </si>
+  <si>
+    <t>De Paris à Istanbul, quelle choc ther !</t>
+  </si>
+  <si>
+    <t>Comme le voyage d'option éco-indus en Ethyopie ne s'est pas très bien passé, je fais une césure génie atomique !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapour </t>
+  </si>
+  <si>
+    <t>Je cherche encore le vin qui s'accordera le mieux avec le chicken rice de Singapour</t>
+  </si>
+  <si>
+    <t>Axa, Paris</t>
+  </si>
+  <si>
+    <t>AXA a recruté un Chinois pour remplacer Fillon cette année.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engie, Paris </t>
+  </si>
+  <si>
+    <t>我是中国人。我是谁？</t>
+  </si>
+  <si>
+    <t>BREILLER-LAVERDURE Maxime</t>
+  </si>
+  <si>
+    <t>CHEBANCE Zacharie</t>
+  </si>
+  <si>
+    <t>COLVEZ Hadrien</t>
+  </si>
+  <si>
+    <t>COPPEAUX Zakaria</t>
+  </si>
+  <si>
+    <t>D'HARCOURT Cyprien</t>
+  </si>
+  <si>
+    <t>DE VEYRAC Gaspard</t>
+  </si>
+  <si>
+    <t>GLASER Pierre</t>
+  </si>
+  <si>
+    <t>GUAN Victor</t>
+  </si>
+  <si>
+    <t>KINDERMANS Martin</t>
+  </si>
+  <si>
+    <t>LANDRY Nicolas</t>
+  </si>
+  <si>
+    <t>PELLIZZARI Mathilde</t>
+  </si>
+  <si>
+    <t>MELKI Gabriel</t>
+  </si>
+  <si>
+    <t>ROIRON Yohann</t>
+  </si>
+  <si>
+    <t>ROUSSELIERES Julia</t>
+  </si>
+  <si>
+    <t>SAVU Narcis</t>
+  </si>
+  <si>
+    <t>VIAL Romain</t>
+  </si>
+  <si>
+    <t>YAO Xu</t>
+  </si>
+  <si>
+    <t>XIONG Wei</t>
+  </si>
+  <si>
+    <t>BILLAUD Antoine</t>
+  </si>
+  <si>
+    <t>CERN, Suisse</t>
+  </si>
+  <si>
+    <t>Il paraît que le Maroc va bientôt produire de l'uranium à partir du phosphate, donc je suis parti au CERN</t>
+  </si>
+  <si>
+    <t>Daller Rowney, République Domicaine /  ARGONNE NATIONAL LABORATORY, USA</t>
+  </si>
+  <si>
+    <t>Je fais le planning-ning-ning</t>
+  </si>
+  <si>
+    <t>Norvege/ Criteo, Munich</t>
+  </si>
+  <si>
+    <t>Pillier du XV de la pioche, je pratique l' "underwater rugby" en Norvège pour ne pas perdre la main</t>
+  </si>
+  <si>
+    <t>Acted, Paris</t>
+  </si>
+  <si>
+    <t>Mon ONG est basée à Paris, c'est toujours le cinéma qui me fait voyager !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteo, Allemagne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En stages de Munich à New York, je suis statistiquement toujours dans les bons coups. </t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
+  <si>
+    <t>Je n'ai pas enregistré mon premier stage de césure sur SGS lol #VICALIFE</t>
+  </si>
+  <si>
+    <t>Moyen-Orient</t>
+  </si>
+  <si>
+    <t>J'ai fait la premiere boulette promal de la promo. Contrairement à ceux qui partent en Angleterre, je ne galère pas à faire mon British</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En bon PT, je me suis bricolé un S3 à Montréal en césure </t>
+  </si>
+  <si>
+    <t>Critéo, Munich. Appian Capital Advisory, Royaume-Uni</t>
+  </si>
+  <si>
+    <t>Après Paris: Munich, puis Londres. Je sais, je suis un peu excentrique !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donze-Beaume, Suisse </t>
+  </si>
+  <si>
+    <t>Mes apparitions à la biéro était déjà réglées comme une montre suisse...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore </t>
+  </si>
+  <si>
+    <t>Pour la première fois, j'ai connu l'échec : une fille a demandé au vigile de me sortir d'un bar à Singapour</t>
+  </si>
+  <si>
+    <t>Soletanche, Hongrie</t>
+  </si>
+  <si>
+    <t>Après avoir si souvent déboîté au Rugby, je construis une usine de fabrication de Légos en césure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grèce </t>
+  </si>
+  <si>
+    <t>Ma passion du Grec plutôt que du Declercq m'a emmené à Athènes plutôt que Bruxelles</t>
+  </si>
+  <si>
+    <t>Saint-Gobain,  USA</t>
+  </si>
+  <si>
+    <t>Je vis la plus swag des césures, même plus besoin de checker mes mails !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosch,  Allemagne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valérie Roy est ma meilleure amie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air liquide, Taiwan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une visite en Birmanie, ça me permettra de donner des conseils, dans mon Rex, pour la gestion d'un pôle interne efficace.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michelin, Clermont-Ferrand </t>
+  </si>
+  <si>
+    <t>J'ai déjà compté les pneus de mon usine Michelin jusqu'à l'infini. Deux fois.</t>
+  </si>
+  <si>
+    <t>Arcelor-Mittal, France</t>
+  </si>
+  <si>
+    <t>Je suis Chinois et j'ai survécu au Peignch pendant un an !</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Merci mentor de m'avoir trouvé un stage de césure !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIT AHMED Aimane </t>
+  </si>
+  <si>
+    <t>AMABILE Loris</t>
+  </si>
+  <si>
+    <t>BRUNET Maxime</t>
+  </si>
+  <si>
+    <t>CHAUMONT Berenice</t>
+  </si>
+  <si>
+    <t>CHLIEH Mohammed</t>
+  </si>
+  <si>
+    <t>DUBOIS Remy</t>
+  </si>
+  <si>
+    <t>ILHAMI Anas</t>
+  </si>
+  <si>
+    <t>KOPP Tommy</t>
+  </si>
+  <si>
+    <t>LAW-KOUNE Hugo</t>
+  </si>
+  <si>
+    <t>LOLOM Vincent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEUNIER William</t>
+  </si>
+  <si>
+    <t>MEYER Antonin</t>
+  </si>
+  <si>
+    <t>NGOM Mamadou</t>
+  </si>
+  <si>
+    <t>NOCTURE Michel</t>
+  </si>
+  <si>
+    <t>TARDIEU Adrien</t>
+  </si>
+  <si>
+    <t>THIERY Alexandre</t>
+  </si>
+  <si>
+    <t>VED Bogdan</t>
+  </si>
+  <si>
+    <t>WANG Yuanhui</t>
+  </si>
+  <si>
+    <t>YUE Xiangnan</t>
+  </si>
+  <si>
+    <t>Leap Energy, Malaisie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai le tétanos à force d'offrir des clous rouillés. Et l'humidité de l'Indonésie aide pas !
+</t>
+  </si>
+  <si>
+    <t>Bosch, Allemagne</t>
+  </si>
+  <si>
+    <t>BNP Parisbas, Londres</t>
+  </si>
+  <si>
+    <t>Zodiac Aerospace, Allemagne/ Sydeney, Australie</t>
+  </si>
+  <si>
+    <t>Chicago, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinci, Malaisie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurofins,  Nouvelle Zélande </t>
+  </si>
+  <si>
+    <t>Vinci, Indonésie</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFD, Kenya </t>
+  </si>
+  <si>
+    <t>Hong-Kong</t>
+  </si>
+  <si>
+    <t>Wandercraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique du Sud </t>
+  </si>
+  <si>
+    <t>Engie, Singapour</t>
+  </si>
+  <si>
+    <t>Après avoir mené campagne en 1A, ma deuxième partie de césure commence à l'École spéciale militaire de Saint-Cyr</t>
+  </si>
+  <si>
+    <t>BARNABE Alexis</t>
+  </si>
+  <si>
+    <t>BARROUILLET Mathieu</t>
+  </si>
+  <si>
+    <t>BENHAMOU Jeremie</t>
+  </si>
+  <si>
+    <t>BOHN Mathilde</t>
+  </si>
+  <si>
+    <t>BOYET Marin</t>
+  </si>
+  <si>
+    <t>COURTOIS Maxence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE PERCIN Solene  </t>
+  </si>
+  <si>
+    <t>GERARD Remi</t>
+  </si>
+  <si>
+    <t>KNEIB Marin</t>
+  </si>
+  <si>
+    <t>LARROCHE Arnaud</t>
+  </si>
+  <si>
+    <t>LAUBY Quentin</t>
+  </si>
+  <si>
+    <t>MEYNIER Alexia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE MALET Benoit  </t>
+  </si>
+  <si>
+    <t>BARBIER Raphaelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE VEYRAC Gaspard  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIT AHMED Aimane  </t>
+  </si>
+  <si>
+    <t>MEUNIER William</t>
+  </si>
+  <si>
+    <t>DUPRE LA TOUR Marie-Alix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +1194,36 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,17 +1243,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,7 +1563,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B1" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,13 +1769,2134 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="49.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:E72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>